--- a/数据/郝海萍-激素检测报告-2022-05-20(1).xlsx
+++ b/数据/郝海萍-激素检测报告-2022-05-20(1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RickGU\Documents\WeChat Files\wxid_1zkddm9mme6t22\FileStorage\File\2022-05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCOS_project\PCOS_transfer_data\数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB2C104-5CEE-4F58-92E3-C02C1909DC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E306F0-A7BE-4E97-8471-D0709F4AA649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="135" windowWidth="15735" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="报告" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t xml:space="preserve">                      激 素 检 测 报 告 单</t>
   </si>
@@ -55,9 +55,6 @@
     <t>女</t>
   </si>
   <si>
-    <t>送检单位：</t>
-  </si>
-  <si>
     <t>广东省妇幼保健院</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>血清</t>
   </si>
   <si>
-    <t>标本状态：</t>
-  </si>
-  <si>
     <t>无肉眼可见异常</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
   </si>
   <si>
     <t>编号</t>
-  </si>
-  <si>
-    <t>检测项目</t>
   </si>
   <si>
     <t>首次检测结果</t>
@@ -172,6 +163,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>育龄女性：</t>
@@ -181,6 +173,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -195,12 +188,63 @@
     <t>＜ 0.30</t>
   </si>
   <si>
+    <t>年龄 15-18岁：&lt;6.6；
+年龄 19-30岁：&lt;13；
+年龄 31-40岁：&lt;10；
+年龄 41-50岁：&lt;8；</t>
+  </si>
+  <si>
+    <t>主检者：</t>
+  </si>
+  <si>
+    <t>审核者：</t>
+  </si>
+  <si>
+    <t>检测方法：</t>
+  </si>
+  <si>
+    <t>液相色谱串联质谱法（参考WS/T 478-2015）</t>
+  </si>
+  <si>
+    <t>备注说明：</t>
+  </si>
+  <si>
+    <t>1.本参考范围为群体性结果，请结合临床状况进行综合判断。</t>
+  </si>
+  <si>
+    <t>2.检测结果分为首次检测及后续检测两栏，方便临床医生对确诊后治疗效果进行准确评估，若为首次检测则仅有首次检测结果数据。</t>
+  </si>
+  <si>
+    <t>3.本报告仅对本样品负责，所检测个体在不同生理时期血液中激素含量会有变化，必要时可能需要采集其它时期标本或需多次送检。如对本次检测结果有疑义，请在5个工作日内联系我们，多谢合作！</t>
+  </si>
+  <si>
+    <t>卵泡期0.09 - 2.00；黄体期0.3-2.34</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>送检单位：</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>标本状态：</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>孕酮（P）</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测项目</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>育龄女性：</t>
@@ -210,6 +254,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -222,6 +267,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>妊娠女性：</t>
@@ -231,44 +277,40 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 妊娠前期 11-44；妊娠中期 25-83；妊娠后期 58-214</t>
     </r>
-  </si>
-  <si>
-    <t>年龄 15-18岁：&lt;6.6；
-年龄 19-30岁：&lt;13；
-年龄 31-40岁：&lt;10；
-年龄 41-50岁：&lt;8；</t>
-  </si>
-  <si>
-    <t>主检者：</t>
-  </si>
-  <si>
-    <t>审核者：</t>
-  </si>
-  <si>
-    <t>检测方法：</t>
-  </si>
-  <si>
-    <t>液相色谱串联质谱法（参考WS/T 478-2015）</t>
-  </si>
-  <si>
-    <t>备注说明：</t>
-  </si>
-  <si>
-    <t>1.本参考范围为群体性结果，请结合临床状况进行综合判断。</t>
-  </si>
-  <si>
-    <t>2.检测结果分为首次检测及后续检测两栏，方便临床医生对确诊后治疗效果进行准确评估，若为首次检测则仅有首次检测结果数据。</t>
-  </si>
-  <si>
-    <t>3.本报告仅对本样品负责，所检测个体在不同生理时期血液中激素含量会有变化，必要时可能需要采集其它时期标本或需多次送检。如对本次检测结果有疑义，请在5个工作日内联系我们，多谢合作！</t>
-  </si>
-  <si>
-    <t>卵泡期0.09 - 2.00；黄体期0.3-2.34</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHEAS</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHT</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-OHP</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHEA</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +333,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -305,6 +348,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -313,6 +357,7 @@
       <sz val="16"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -320,18 +365,21 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -339,18 +387,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -358,6 +409,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -365,12 +417,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -378,12 +432,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -391,11 +447,13 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -403,6 +461,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -418,6 +477,29 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -627,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -717,6 +799,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -750,13 +836,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -795,16 +884,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -832,6 +918,15 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,6 +941,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
@@ -910,8 +1009,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,13 +1042,13 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>22860</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>320040</xdr:rowOff>
+          <xdr:rowOff>314325</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1409,611 +1508,632 @@
   </sheetPr>
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:J10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="3.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="3.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="5" customWidth="1"/>
     <col min="7" max="7" width="11" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="6"/>
+    <col min="8" max="8" width="9.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-    </row>
-    <row r="2" spans="1:12" ht="2.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+    </row>
+    <row r="2" spans="1:13" ht="2.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
       <c r="K3" s="8"/>
       <c r="L3" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="57">
+      <c r="B4" s="73"/>
+      <c r="C4" s="58">
         <v>2343127051</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="82" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="57" t="s">
+      <c r="F4" s="87"/>
+      <c r="G4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="57"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="75"/>
-    </row>
-    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="K4" s="81"/>
+      <c r="L4" s="80"/>
+    </row>
+    <row r="5" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="73"/>
+      <c r="C5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="68" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="74" t="s">
+      <c r="F5" s="73"/>
+      <c r="G5" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="80"/>
+      <c r="I5" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="77" t="s">
+      <c r="K5" s="83"/>
+      <c r="L5" s="84"/>
+    </row>
+    <row r="6" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="79"/>
-    </row>
-    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69" t="s">
+      <c r="D6" s="75"/>
+      <c r="E6" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="68" t="s">
+      <c r="F6" s="73"/>
+      <c r="G6" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="74" t="s">
+      <c r="H6" s="80"/>
+      <c r="I6" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="75"/>
-      <c r="I6" s="9" t="s">
+      <c r="K6" s="81"/>
+      <c r="L6" s="80"/>
+    </row>
+    <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="74" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="76"/>
-      <c r="L6" s="75"/>
-    </row>
-    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="D7" s="75"/>
+      <c r="E7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69" t="s">
+      <c r="F7" s="73"/>
+      <c r="G7" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="75"/>
+      <c r="I7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="68" t="s">
+      <c r="J7" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="9" t="s">
+      <c r="K7" s="77"/>
+      <c r="L7" s="78"/>
+    </row>
+    <row r="8" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+    </row>
+    <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="72"/>
-      <c r="L7" s="73"/>
-    </row>
-    <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="B9" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-    </row>
-    <row r="9" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="H9" s="72"/>
+      <c r="I9" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="J9" s="72"/>
+      <c r="K9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67" t="s">
+      <c r="L9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>1</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="58"/>
+      <c r="K10" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="57"/>
-      <c r="K10" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>2</v>
       </c>
-      <c r="B11" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56">
+      <c r="B11" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57">
         <v>2.9580000000000002</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="37"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="58"/>
+      <c r="K11" s="65"/>
       <c r="L11" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>3</v>
       </c>
-      <c r="B12" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56">
+      <c r="B12" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57">
         <v>2776.39</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="37"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="58"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="M12" s="88" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>4</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="64">
+      <c r="B13" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="68">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="37"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="58"/>
+      <c r="K13" s="65"/>
       <c r="L13" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="M13" s="88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <v>5</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="63">
+      <c r="B14" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="67">
         <v>1.528</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="37"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="58"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="M14" s="88" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>6</v>
       </c>
-      <c r="B15" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="64">
+      <c r="B15" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="68">
         <v>0.48099999999999998</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="37"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="58"/>
+      <c r="K15" s="65"/>
       <c r="L15" s="21"/>
-    </row>
-    <row r="16" spans="1:12" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>7</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57">
+        <v>2.7519999999999998</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="58"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+    </row>
+    <row r="18" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56">
-        <v>2.7519999999999998</v>
-      </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-    </row>
-    <row r="18" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
       <c r="L18" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <v>1</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>2</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="40"/>
-    </row>
-    <row r="21" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="42"/>
+    </row>
+    <row r="21" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>3</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="40"/>
-    </row>
-    <row r="22" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="42"/>
+    </row>
+    <row r="22" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>4</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="40"/>
-    </row>
-    <row r="23" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="42"/>
+    </row>
+    <row r="23" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>5</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="40"/>
-    </row>
-    <row r="24" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="42"/>
+    </row>
+    <row r="24" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>6</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="40"/>
-    </row>
-    <row r="25" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="42"/>
+    </row>
+    <row r="25" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>7</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="46"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="43"/>
+    </row>
+    <row r="26" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="F26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="44"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="41"/>
-    </row>
-    <row r="26" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="52"/>
+    </row>
+    <row r="27" spans="1:21" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="F26" s="14" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
-    </row>
-    <row r="27" spans="1:21" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-    </row>
-    <row r="28" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="36"/>
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
@@ -2024,21 +2144,21 @@
       <c r="T28" s="23"/>
       <c r="U28" s="23"/>
     </row>
-    <row r="29" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
+    <row r="29" spans="1:21" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="28"/>
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
@@ -2048,37 +2168,37 @@
       <c r="S29" s="23"/>
       <c r="T29" s="23"/>
     </row>
-    <row r="30" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="27"/>
-    </row>
-    <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="27"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="18"/>
@@ -2122,24 +2242,16 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
@@ -2148,14 +2260,14 @@
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="K10:K16"/>
-    <mergeCell ref="L19:L25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="D24:G24"/>
@@ -2171,6 +2283,14 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L19:L25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2193,13 +2313,13 @@
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>723900</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>320040</xdr:rowOff>
+                <xdr:rowOff>314325</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
